--- a/FW3/environment/TestCaseTemplate.xlsx
+++ b/FW3/environment/TestCaseTemplate.xlsx
@@ -43,9 +43,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,8 +390,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -421,6 +430,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
